--- a/01_Analise/Artefatos/b01_01_artefactos.xlsx
+++ b/01_Analise/Artefatos/b01_01_artefactos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ISEL\Projeto\code\slc\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ISEL\WaterSpy_Final_Project\01_Analise\Artefatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BFD48AD-B5CF-4B28-86F9-1E567E21B4A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0FD78E-6775-4935-BDD2-5B6D64C967A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -273,7 +273,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -320,7 +320,7 @@
                 <a:cs typeface="Calibri"/>
                 <a:sym typeface="Calibri"/>
               </a:rPr>
-              <a:t>Neste Projeto serão processadas imagens de contadores de luz, água e gás, tiradas pelos utilizadores, reconhecer os caracteres que se encontram nas imagens, e poder enviar para entidade os valores captados nas imagens. O sistema desenvolvido será utilizado pelos consumidores finais de água, luz e gás.</a:t>
+              <a:t>Neste Projeto serão processadas imagens de contadores de água tiradas pelos utilizadores, reconhecer os caracteres que se encontram nas imagens, e poder enviar para entidade os valores captados nas imagens. O sistema desenvolvido será utilizado pelos consumidores finais de água.</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -333,13 +333,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>35459</xdr:rowOff>
+      <xdr:rowOff>35458</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>219074</xdr:rowOff>
+      <xdr:rowOff>211454</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -354,10 +354,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="171450" y="2809139"/>
-          <a:ext cx="6457950" cy="816075"/>
-          <a:chOff x="0" y="-12165"/>
-          <a:chExt cx="7092950" cy="840840"/>
+          <a:off x="171450" y="2809138"/>
+          <a:ext cx="6457950" cy="816076"/>
+          <a:chOff x="0" y="-12166"/>
+          <a:chExt cx="7092950" cy="840841"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -413,7 +413,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="31432" y="-12166"/>
-            <a:ext cx="7030086" cy="259565"/>
+            <a:ext cx="7030086" cy="272586"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -426,7 +426,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -473,7 +473,33 @@
                 <a:cs typeface="Calibri"/>
                 <a:sym typeface="Calibri"/>
               </a:rPr>
-              <a:t>Entidades que oferecem serviços como água, luz e gás, por exemplo SMAS de Sintra, Tecnirede</a:t>
+              <a:t>Entidades que oferecem serviços como água</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+                <a:sym typeface="Calibri"/>
+              </a:rPr>
+              <a:t>,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+                <a:sym typeface="Calibri"/>
+              </a:rPr>
+              <a:t> por exemplo SMAS de Sintra</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -579,7 +605,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -1949,7 +1975,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
